--- a/01-beginner/067-templates.xlsx
+++ b/01-beginner/067-templates.xlsx
@@ -1,33 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recording-PC\Documents\microsoft-excel\01-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13215" windowHeight="8385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Family Vacation Itinerary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+  <si>
+    <t>Family Vacation Itinerary</t>
+  </si>
+  <si>
+    <t>Print and take a copy of this form with you on your trip. Also leave a copy at home with a friend or relative.</t>
+  </si>
+  <si>
+    <t>Personal Information</t>
+  </si>
+  <si>
+    <t>Full names &amp; Nicknames</t>
+  </si>
+  <si>
+    <t>Home address</t>
+  </si>
+  <si>
+    <t>Home phone</t>
+  </si>
+  <si>
+    <t>Cellular phones</t>
+  </si>
+  <si>
+    <t>Departure Info</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Airline</t>
+  </si>
+  <si>
+    <t>Flight Number</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Departure Time</t>
+  </si>
+  <si>
+    <t>Departure Terminal/Gate</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Arrival Time</t>
+  </si>
+  <si>
+    <t>Length of Flight</t>
+  </si>
+  <si>
+    <t>Seat Numbers</t>
+  </si>
+  <si>
+    <t>Confirmation Numbers</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Car Rental</t>
+  </si>
+  <si>
+    <t>Date of Reservation</t>
+  </si>
+  <si>
+    <t>Rental Company</t>
+  </si>
+  <si>
+    <t>Pickup Day/Time</t>
+  </si>
+  <si>
+    <t>Drop-off Day/Time</t>
+  </si>
+  <si>
+    <t>Confirmation Number</t>
+  </si>
+  <si>
+    <t>Vehicle type</t>
+  </si>
+  <si>
+    <t>Telephone number</t>
+  </si>
+  <si>
+    <t>Airline Telephone Number</t>
+  </si>
+  <si>
+    <t>Lodging</t>
+  </si>
+  <si>
+    <t>Hotel Name</t>
+  </si>
+  <si>
+    <t>Hotel Address</t>
+  </si>
+  <si>
+    <t>Hotel Phone Number</t>
+  </si>
+  <si>
+    <t>Check-in Day/Time</t>
+  </si>
+  <si>
+    <t>Check-out Day/Time</t>
+  </si>
+  <si>
+    <t>Return Info</t>
+  </si>
+  <si>
+    <t>Insurance Company</t>
+  </si>
+  <si>
+    <t>Travel Insurance</t>
+  </si>
+  <si>
+    <t>Telephone Number</t>
+  </si>
+  <si>
+    <t>Coverage Type</t>
+  </si>
+  <si>
+    <t>Purchase Date</t>
+  </si>
+  <si>
+    <t>Coverage Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Activity 1</t>
+  </si>
+  <si>
+    <t>Dates/Times</t>
+  </si>
+  <si>
+    <t>Activity 2</t>
+  </si>
+  <si>
+    <t>Emergency Contacts</t>
+  </si>
+  <si>
+    <t>Name/Relationship</t>
+  </si>
+  <si>
+    <t>Phone Number/Alternate Phone Number</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,14 +219,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -71,6 +299,94 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A4:B13" totalsRowShown="0">
+  <autoFilter ref="A4:B13"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Personal Information" dataDxfId="15"/>
+    <tableColumn id="2" name=" " dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A15:B28" totalsRowShown="0">
+  <autoFilter ref="A15:B28"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Departure Info" dataDxfId="13"/>
+    <tableColumn id="2" name=" " dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A30:B37" totalsRowShown="0">
+  <autoFilter ref="A30:B37"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Car Rental" dataDxfId="11"/>
+    <tableColumn id="2" name=" " dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A39:B46" totalsRowShown="0">
+  <autoFilter ref="A39:B46"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Lodging" dataDxfId="9"/>
+    <tableColumn id="2" name=" " dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table59" displayName="Table59" ref="A58:B71" totalsRowShown="0">
+  <autoFilter ref="A58:B71"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Return Info" dataDxfId="7"/>
+    <tableColumn id="2" name=" " dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A73:B79" totalsRowShown="0">
+  <autoFilter ref="A73:B79"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Travel Insurance" dataDxfId="5"/>
+    <tableColumn id="2" name=" " dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A48:B56" totalsRowShown="0">
+  <autoFilter ref="A48:B56"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Activities" dataDxfId="3"/>
+    <tableColumn id="2" name=" " dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table32" displayName="Table32" ref="A81:B84" totalsRowShown="0">
+  <autoFilter ref="A81:B84"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Emergency Contacts" dataDxfId="1"/>
+    <tableColumn id="2" name="Phone Number/Alternate Phone Number" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -84,44 +400,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -171,9 +487,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -229,154 +545,658 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.86328125" customWidth="1"/>
+    <col min="2" max="2" width="49.265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="8">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1CC431F-11C1-4D2D-AFEC-7C6DF15AA57A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>